--- a/bio/src/test/resources/test_data.xlsx
+++ b/bio/src/test/resources/test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="606" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="2012_YP_Exp11" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>Assay ID</t>
+    <t>AssayID</t>
   </si>
   <si>
     <t>Tested_Conc_microM</t>
@@ -2774,28 +2774,28 @@
   </sheetPr>
   <dimension ref="A1:N1593"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="G1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="N1" activeCellId="0" pane="topLeft" sqref="N1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.0980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5607843137255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.1647058823529"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.6666666666667"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.8941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.4745098039216"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="14.1686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.67450980392157"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.643137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.74117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="27.5843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.1254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.1882352941176"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.3843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.6313725490196"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="14.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="8.80392156862745"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
